--- a/data/2015-2016-期末-登分表.xlsx
+++ b/data/2015-2016-期末-登分表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="976">
   <si>
     <t>性别</t>
   </si>
@@ -1949,9 +1949,6 @@
     <t>Sarah</t>
   </si>
   <si>
-    <t>刘家树</t>
-  </si>
-  <si>
     <t>Jamie</t>
   </si>
   <si>
@@ -3021,6 +3018,26 @@
   </si>
   <si>
     <t>P1500012</t>
+  </si>
+  <si>
+    <t>P1500255</t>
+  </si>
+  <si>
+    <t>刘家树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1500221</t>
+  </si>
+  <si>
+    <t>P1500248</t>
+  </si>
+  <si>
+    <t>P1500258</t>
+  </si>
+  <si>
+    <t>P1500228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3575,7 +3592,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3614,21 +3646,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
@@ -3637,7 +3654,18 @@
     <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="常规 4" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3951,8 +3979,8 @@
   <dimension ref="A1:U306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4004,19 +4032,19 @@
         <v>558</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>560</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="L1" s="44" t="s">
+        <v>666</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>667</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>668</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>561</v>
@@ -4069,7 +4097,7 @@
         <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="45">
@@ -4079,7 +4107,7 @@
         <v>502</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -4122,7 +4150,7 @@
         <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="45">
@@ -4132,7 +4160,7 @@
         <v>502</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -4175,7 +4203,7 @@
         <v>95.5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="45">
@@ -4185,7 +4213,7 @@
         <v>502</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -4228,7 +4256,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="45">
@@ -4238,7 +4266,7 @@
         <v>502</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -4281,7 +4309,7 @@
         <v>93.5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="45">
@@ -4291,7 +4319,7 @@
         <v>502</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -4334,7 +4362,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="45">
@@ -4344,7 +4372,7 @@
         <v>502</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -4387,7 +4415,7 @@
         <v>96.5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="45">
@@ -4397,7 +4425,7 @@
         <v>502</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -4440,7 +4468,7 @@
         <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="45">
@@ -4450,7 +4478,7 @@
         <v>502</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -4493,7 +4521,7 @@
         <v>98.5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="45">
@@ -4503,7 +4531,7 @@
         <v>502</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -4546,7 +4574,7 @@
         <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="45">
@@ -4556,7 +4584,7 @@
         <v>502</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -4599,7 +4627,7 @@
         <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="45">
@@ -4609,7 +4637,7 @@
         <v>502</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4652,7 +4680,7 @@
         <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="45">
@@ -4662,7 +4690,7 @@
         <v>502</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -4705,7 +4733,7 @@
         <v>97</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="45">
@@ -4715,7 +4743,7 @@
         <v>502</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4758,7 +4786,7 @@
         <v>99.5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="45">
@@ -4768,7 +4796,7 @@
         <v>502</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4811,7 +4839,7 @@
         <v>91.5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="45">
@@ -4821,7 +4849,7 @@
         <v>502</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4864,7 +4892,7 @@
         <v>99</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="45">
@@ -4874,7 +4902,7 @@
         <v>502</v>
       </c>
       <c r="M17" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4917,7 +4945,7 @@
         <v>97.5</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="45">
@@ -4927,7 +4955,7 @@
         <v>502</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4970,7 +4998,7 @@
         <v>78.5</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="45">
@@ -4980,7 +5008,7 @@
         <v>502</v>
       </c>
       <c r="M19" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5023,7 +5051,7 @@
         <v>64.5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="45">
@@ -5033,7 +5061,7 @@
         <v>502</v>
       </c>
       <c r="M20" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5076,7 +5104,7 @@
         <v>99.5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="45">
@@ -5086,7 +5114,7 @@
         <v>502</v>
       </c>
       <c r="M21" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5129,7 +5157,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="45">
@@ -5139,7 +5167,7 @@
         <v>502</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5182,7 +5210,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="45">
@@ -5192,7 +5220,7 @@
         <v>502</v>
       </c>
       <c r="M23" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5235,7 +5263,7 @@
         <v>99.5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="45">
@@ -5245,7 +5273,7 @@
         <v>502</v>
       </c>
       <c r="M24" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5273,7 +5301,7 @@
         <v>571</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -5288,7 +5316,7 @@
         <v>572</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="45">
@@ -5298,7 +5326,7 @@
         <v>502</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5341,7 +5369,7 @@
         <v>99.5</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="45">
@@ -5351,7 +5379,7 @@
         <v>502</v>
       </c>
       <c r="M26" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
@@ -5394,7 +5422,7 @@
         <v>97.5</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J27" s="41"/>
       <c r="K27" s="45">
@@ -5404,7 +5432,7 @@
         <v>502</v>
       </c>
       <c r="M27" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -5447,7 +5475,7 @@
         <v>97.5</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J28" s="41"/>
       <c r="K28" s="45">
@@ -5457,7 +5485,7 @@
         <v>502</v>
       </c>
       <c r="M28" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
@@ -5500,7 +5528,7 @@
         <v>99</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J29" s="41"/>
       <c r="K29" s="45">
@@ -5510,7 +5538,7 @@
         <v>502</v>
       </c>
       <c r="M29" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
@@ -5553,7 +5581,7 @@
         <v>98</v>
       </c>
       <c r="I30" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J30" s="41"/>
       <c r="K30" s="45">
@@ -5563,7 +5591,7 @@
         <v>502</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
@@ -5606,7 +5634,7 @@
         <v>100</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="45">
@@ -5616,7 +5644,7 @@
         <v>502</v>
       </c>
       <c r="M31" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
@@ -5659,7 +5687,7 @@
         <v>100</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J32" s="41"/>
       <c r="K32" s="45">
@@ -5669,7 +5697,7 @@
         <v>502</v>
       </c>
       <c r="M32" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N32" s="41"/>
       <c r="O32" s="41"/>
@@ -5712,7 +5740,7 @@
         <v>92</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J33" s="41"/>
       <c r="K33" s="45">
@@ -5722,7 +5750,7 @@
         <v>502</v>
       </c>
       <c r="M33" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
@@ -5765,7 +5793,7 @@
         <v>92.5</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J34" s="41"/>
       <c r="K34" s="45">
@@ -5775,7 +5803,7 @@
         <v>502</v>
       </c>
       <c r="M34" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
@@ -5818,7 +5846,7 @@
         <v>97.5</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J35" s="41"/>
       <c r="K35" s="45">
@@ -5828,7 +5856,7 @@
         <v>502</v>
       </c>
       <c r="M35" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
@@ -5871,7 +5899,7 @@
         <v>97.5</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J36" s="41"/>
       <c r="K36" s="45">
@@ -5881,7 +5909,7 @@
         <v>502</v>
       </c>
       <c r="M36" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
@@ -5924,7 +5952,7 @@
         <v>99</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J37" s="41"/>
       <c r="K37" s="45">
@@ -5934,7 +5962,7 @@
         <v>502</v>
       </c>
       <c r="M37" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
@@ -5977,7 +6005,7 @@
         <v>94</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J38" s="41"/>
       <c r="K38" s="45">
@@ -5987,7 +6015,7 @@
         <v>502</v>
       </c>
       <c r="M38" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
@@ -6030,7 +6058,7 @@
         <v>99.5</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J39" s="41"/>
       <c r="K39" s="45">
@@ -6040,7 +6068,7 @@
         <v>502</v>
       </c>
       <c r="M39" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -6083,7 +6111,7 @@
         <v>97.5</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J40" s="41"/>
       <c r="K40" s="45">
@@ -6093,7 +6121,7 @@
         <v>502</v>
       </c>
       <c r="M40" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
@@ -6136,7 +6164,7 @@
         <v>99.5</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J41" s="41"/>
       <c r="K41" s="45">
@@ -6146,7 +6174,7 @@
         <v>502</v>
       </c>
       <c r="M41" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
@@ -6189,7 +6217,7 @@
         <v>100</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J42" s="41"/>
       <c r="K42" s="45">
@@ -6199,7 +6227,7 @@
         <v>502</v>
       </c>
       <c r="M42" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
@@ -6242,7 +6270,7 @@
         <v>96.5</v>
       </c>
       <c r="I43" s="41" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J43" s="41"/>
       <c r="K43" s="45">
@@ -6252,7 +6280,7 @@
         <v>502</v>
       </c>
       <c r="M43" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
@@ -6295,7 +6323,7 @@
         <v>97.5</v>
       </c>
       <c r="I44" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J44" s="41"/>
       <c r="K44" s="45">
@@ -6305,7 +6333,7 @@
         <v>502</v>
       </c>
       <c r="M44" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
@@ -6348,7 +6376,7 @@
         <v>93.5</v>
       </c>
       <c r="I45" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J45" s="41"/>
       <c r="K45" s="45">
@@ -6358,7 +6386,7 @@
         <v>502</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
@@ -6401,7 +6429,7 @@
         <v>98</v>
       </c>
       <c r="I46" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J46" s="41"/>
       <c r="K46" s="45">
@@ -6411,7 +6439,7 @@
         <v>502</v>
       </c>
       <c r="M46" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
@@ -6454,7 +6482,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J47" s="41"/>
       <c r="K47" s="45">
@@ -6464,7 +6492,7 @@
         <v>502</v>
       </c>
       <c r="M47" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N47" s="41"/>
       <c r="O47" s="41"/>
@@ -6507,7 +6535,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J48" s="41"/>
       <c r="K48" s="45">
@@ -6517,7 +6545,7 @@
         <v>502</v>
       </c>
       <c r="M48" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N48" s="41"/>
       <c r="O48" s="41"/>
@@ -6560,7 +6588,7 @@
         <v>95</v>
       </c>
       <c r="I49" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J49" s="41"/>
       <c r="K49" s="45">
@@ -6570,7 +6598,7 @@
         <v>502</v>
       </c>
       <c r="M49" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
@@ -6613,7 +6641,7 @@
         <v>97</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="45">
@@ -6623,7 +6651,7 @@
         <v>502</v>
       </c>
       <c r="M50" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6666,7 +6694,7 @@
         <v>99.5</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="45">
@@ -6676,7 +6704,7 @@
         <v>502</v>
       </c>
       <c r="M51" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6719,7 +6747,7 @@
         <v>99.5</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="45">
@@ -6729,7 +6757,7 @@
         <v>502</v>
       </c>
       <c r="M52" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6772,7 +6800,7 @@
         <v>91</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="45">
@@ -6782,7 +6810,7 @@
         <v>502</v>
       </c>
       <c r="M53" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6825,7 +6853,7 @@
         <v>99.5</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="45">
@@ -6835,7 +6863,7 @@
         <v>502</v>
       </c>
       <c r="M54" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6878,7 +6906,7 @@
         <v>98</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="45">
@@ -6888,7 +6916,7 @@
         <v>502</v>
       </c>
       <c r="M55" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6931,7 +6959,7 @@
         <v>96.5</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="45">
@@ -6941,7 +6969,7 @@
         <v>502</v>
       </c>
       <c r="M56" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6984,7 +7012,7 @@
         <v>56.5</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="45">
@@ -6994,7 +7022,7 @@
         <v>502</v>
       </c>
       <c r="M57" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7037,7 +7065,7 @@
         <v>92</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="45">
@@ -7047,7 +7075,7 @@
         <v>502</v>
       </c>
       <c r="M58" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7090,7 +7118,7 @@
         <v>98.5</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="45">
@@ -7100,7 +7128,7 @@
         <v>502</v>
       </c>
       <c r="M59" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7143,7 +7171,7 @@
         <v>95</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="45">
@@ -7153,7 +7181,7 @@
         <v>502</v>
       </c>
       <c r="M60" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7196,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="45">
@@ -7206,7 +7234,7 @@
         <v>502</v>
       </c>
       <c r="M61" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7249,7 +7277,7 @@
         <v>90</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="45">
@@ -7259,7 +7287,7 @@
         <v>502</v>
       </c>
       <c r="M62" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7302,7 +7330,7 @@
         <v>96.5</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="45">
@@ -7312,7 +7340,7 @@
         <v>502</v>
       </c>
       <c r="M63" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7355,7 +7383,7 @@
         <v>85</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="45">
@@ -7365,7 +7393,7 @@
         <v>502</v>
       </c>
       <c r="M64" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7408,7 +7436,7 @@
         <v>94</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="45">
@@ -7418,7 +7446,7 @@
         <v>502</v>
       </c>
       <c r="M65" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7461,7 +7489,7 @@
         <v>99.5</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="45">
@@ -7471,7 +7499,7 @@
         <v>502</v>
       </c>
       <c r="M66" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7514,7 +7542,7 @@
         <v>97.5</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="45">
@@ -7524,7 +7552,7 @@
         <v>502</v>
       </c>
       <c r="M67" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -7567,7 +7595,7 @@
         <v>97.5</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="45">
@@ -7577,7 +7605,7 @@
         <v>502</v>
       </c>
       <c r="M68" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -7620,7 +7648,7 @@
         <v>100</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="45">
@@ -7630,7 +7658,7 @@
         <v>502</v>
       </c>
       <c r="M69" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -7673,7 +7701,7 @@
         <v>38</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="45">
@@ -7683,7 +7711,7 @@
         <v>502</v>
       </c>
       <c r="M70" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -7724,7 +7752,7 @@
         <v>87.5</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="45">
@@ -7734,7 +7762,7 @@
         <v>502</v>
       </c>
       <c r="M71" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -7775,7 +7803,7 @@
         <v>581</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="45">
@@ -7785,7 +7813,7 @@
         <v>502</v>
       </c>
       <c r="M72" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -7826,7 +7854,7 @@
         <v>80</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="45">
@@ -7836,7 +7864,7 @@
         <v>502</v>
       </c>
       <c r="M73" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -7877,7 +7905,7 @@
       </c>
       <c r="H74" s="42"/>
       <c r="I74" s="42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J74" s="42"/>
       <c r="K74" s="45">
@@ -7887,7 +7915,7 @@
         <v>503</v>
       </c>
       <c r="M74" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N74" s="42"/>
       <c r="O74" s="42"/>
@@ -7928,7 +7956,7 @@
       </c>
       <c r="H75" s="42"/>
       <c r="I75" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J75" s="42"/>
       <c r="K75" s="45">
@@ -7938,7 +7966,7 @@
         <v>503</v>
       </c>
       <c r="M75" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N75" s="42"/>
       <c r="O75" s="42"/>
@@ -7979,7 +8007,7 @@
       </c>
       <c r="H76" s="42"/>
       <c r="I76" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J76" s="42"/>
       <c r="K76" s="45">
@@ -7989,7 +8017,7 @@
         <v>503</v>
       </c>
       <c r="M76" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N76" s="42"/>
       <c r="O76" s="42"/>
@@ -8030,7 +8058,7 @@
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J77" s="42"/>
       <c r="K77" s="45">
@@ -8040,7 +8068,7 @@
         <v>503</v>
       </c>
       <c r="M77" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N77" s="42"/>
       <c r="O77" s="42"/>
@@ -8081,7 +8109,7 @@
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J78" s="42"/>
       <c r="K78" s="45">
@@ -8091,7 +8119,7 @@
         <v>503</v>
       </c>
       <c r="M78" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N78" s="42"/>
       <c r="O78" s="42"/>
@@ -8132,7 +8160,7 @@
       </c>
       <c r="H79" s="42"/>
       <c r="I79" s="42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J79" s="42"/>
       <c r="K79" s="45">
@@ -8142,7 +8170,7 @@
         <v>503</v>
       </c>
       <c r="M79" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N79" s="42"/>
       <c r="O79" s="42"/>
@@ -8183,7 +8211,7 @@
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J80" s="42"/>
       <c r="K80" s="45">
@@ -8193,7 +8221,7 @@
         <v>503</v>
       </c>
       <c r="M80" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N80" s="42"/>
       <c r="O80" s="42"/>
@@ -8234,7 +8262,7 @@
       </c>
       <c r="H81" s="42"/>
       <c r="I81" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J81" s="42"/>
       <c r="K81" s="45">
@@ -8244,7 +8272,7 @@
         <v>503</v>
       </c>
       <c r="M81" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N81" s="42"/>
       <c r="O81" s="42"/>
@@ -8285,7 +8313,7 @@
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J82" s="42"/>
       <c r="K82" s="45">
@@ -8295,7 +8323,7 @@
         <v>503</v>
       </c>
       <c r="M82" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N82" s="42"/>
       <c r="O82" s="42"/>
@@ -8336,7 +8364,7 @@
       </c>
       <c r="H83" s="42"/>
       <c r="I83" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J83" s="42"/>
       <c r="K83" s="45">
@@ -8346,7 +8374,7 @@
         <v>503</v>
       </c>
       <c r="M83" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N83" s="42"/>
       <c r="O83" s="42"/>
@@ -8387,7 +8415,7 @@
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J84" s="42"/>
       <c r="K84" s="45">
@@ -8397,7 +8425,7 @@
         <v>503</v>
       </c>
       <c r="M84" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N84" s="42"/>
       <c r="O84" s="42"/>
@@ -8438,7 +8466,7 @@
       </c>
       <c r="H85" s="41"/>
       <c r="I85" s="41" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J85" s="41"/>
       <c r="K85" s="45">
@@ -8448,7 +8476,7 @@
         <v>503</v>
       </c>
       <c r="M85" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N85" s="41"/>
       <c r="O85" s="41"/>
@@ -8489,7 +8517,7 @@
       </c>
       <c r="H86" s="42"/>
       <c r="I86" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J86" s="42"/>
       <c r="K86" s="45">
@@ -8499,7 +8527,7 @@
         <v>503</v>
       </c>
       <c r="M86" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N86" s="42"/>
       <c r="O86" s="42"/>
@@ -8540,7 +8568,7 @@
       </c>
       <c r="H87" s="42"/>
       <c r="I87" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J87" s="42"/>
       <c r="K87" s="45">
@@ -8550,7 +8578,7 @@
         <v>503</v>
       </c>
       <c r="M87" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N87" s="42"/>
       <c r="O87" s="42"/>
@@ -8591,7 +8619,7 @@
       </c>
       <c r="H88" s="42"/>
       <c r="I88" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J88" s="42"/>
       <c r="K88" s="45">
@@ -8601,7 +8629,7 @@
         <v>503</v>
       </c>
       <c r="M88" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N88" s="42"/>
       <c r="O88" s="42"/>
@@ -8642,7 +8670,7 @@
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J89" s="42"/>
       <c r="K89" s="45">
@@ -8652,7 +8680,7 @@
         <v>503</v>
       </c>
       <c r="M89" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N89" s="42"/>
       <c r="O89" s="42"/>
@@ -8693,7 +8721,7 @@
       </c>
       <c r="H90" s="42"/>
       <c r="I90" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J90" s="42"/>
       <c r="K90" s="45">
@@ -8703,7 +8731,7 @@
         <v>503</v>
       </c>
       <c r="M90" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
@@ -8744,7 +8772,7 @@
       </c>
       <c r="H91" s="42"/>
       <c r="I91" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J91" s="42"/>
       <c r="K91" s="45">
@@ -8754,7 +8782,7 @@
         <v>503</v>
       </c>
       <c r="M91" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N91" s="42"/>
       <c r="O91" s="42"/>
@@ -8795,7 +8823,7 @@
       </c>
       <c r="H92" s="42"/>
       <c r="I92" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J92" s="42"/>
       <c r="K92" s="45">
@@ -8805,7 +8833,7 @@
         <v>503</v>
       </c>
       <c r="M92" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N92" s="42"/>
       <c r="O92" s="42"/>
@@ -8846,7 +8874,7 @@
       </c>
       <c r="H93" s="42"/>
       <c r="I93" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J93" s="42"/>
       <c r="K93" s="45">
@@ -8856,7 +8884,7 @@
         <v>503</v>
       </c>
       <c r="M93" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N93" s="42"/>
       <c r="O93" s="42"/>
@@ -8897,7 +8925,7 @@
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J94" s="42"/>
       <c r="K94" s="45">
@@ -8907,7 +8935,7 @@
         <v>503</v>
       </c>
       <c r="M94" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N94" s="42"/>
       <c r="O94" s="42"/>
@@ -8946,7 +8974,7 @@
       </c>
       <c r="H95" s="42"/>
       <c r="I95" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J95" s="42"/>
       <c r="K95" s="45">
@@ -8956,7 +8984,7 @@
         <v>503</v>
       </c>
       <c r="M95" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N95" s="42"/>
       <c r="O95" s="42"/>
@@ -8999,7 +9027,7 @@
         <v>85</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="45">
@@ -9009,7 +9037,7 @@
         <v>503</v>
       </c>
       <c r="M96" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
@@ -9052,7 +9080,7 @@
         <v>87.5</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="45">
@@ -9062,7 +9090,7 @@
         <v>503</v>
       </c>
       <c r="M97" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
@@ -9105,7 +9133,7 @@
         <v>92</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="45">
@@ -9115,7 +9143,7 @@
         <v>503</v>
       </c>
       <c r="M98" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -9158,7 +9186,7 @@
         <v>77</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="45">
@@ -9168,7 +9196,7 @@
         <v>503</v>
       </c>
       <c r="M99" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
@@ -9211,7 +9239,7 @@
         <v>95</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="45">
@@ -9221,7 +9249,7 @@
         <v>503</v>
       </c>
       <c r="M100" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
@@ -9264,7 +9292,7 @@
         <v>95</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="45">
@@ -9274,7 +9302,7 @@
         <v>503</v>
       </c>
       <c r="M101" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -9317,7 +9345,7 @@
         <v>93</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="45">
@@ -9327,7 +9355,7 @@
         <v>503</v>
       </c>
       <c r="M102" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -9370,7 +9398,7 @@
         <v>95</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="45">
@@ -9380,7 +9408,7 @@
         <v>503</v>
       </c>
       <c r="M103" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -9423,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="45">
@@ -9433,7 +9461,7 @@
         <v>503</v>
       </c>
       <c r="M104" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -9476,7 +9504,7 @@
         <v>97</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="45">
@@ -9486,7 +9514,7 @@
         <v>503</v>
       </c>
       <c r="M105" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -9529,7 +9557,7 @@
         <v>95</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="45">
@@ -9539,7 +9567,7 @@
         <v>503</v>
       </c>
       <c r="M106" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -9582,7 +9610,7 @@
         <v>84</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="45">
@@ -9592,7 +9620,7 @@
         <v>503</v>
       </c>
       <c r="M107" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -9635,7 +9663,7 @@
         <v>99</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="45">
@@ -9645,7 +9673,7 @@
         <v>503</v>
       </c>
       <c r="M108" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -9688,7 +9716,7 @@
         <v>94.5</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="45">
@@ -9698,7 +9726,7 @@
         <v>503</v>
       </c>
       <c r="M109" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
@@ -9741,7 +9769,7 @@
         <v>98</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="45">
@@ -9751,7 +9779,7 @@
         <v>503</v>
       </c>
       <c r="M110" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
@@ -9794,7 +9822,7 @@
         <v>96.5</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="45">
@@ -9804,7 +9832,7 @@
         <v>503</v>
       </c>
       <c r="M111" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
@@ -9845,7 +9873,7 @@
         <v>79</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="45">
@@ -9855,7 +9883,7 @@
         <v>503</v>
       </c>
       <c r="M112" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
@@ -9896,7 +9924,7 @@
         <v>83</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="45">
@@ -9906,7 +9934,7 @@
         <v>503</v>
       </c>
       <c r="M113" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
@@ -9949,7 +9977,7 @@
         <v>93.5</v>
       </c>
       <c r="I114" s="42" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J114" s="42"/>
       <c r="K114" s="45">
@@ -9959,7 +9987,7 @@
         <v>503</v>
       </c>
       <c r="M114" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N114" s="42"/>
       <c r="O114" s="42"/>
@@ -10002,7 +10030,7 @@
         <v>94</v>
       </c>
       <c r="I115" s="42" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J115" s="42"/>
       <c r="K115" s="45">
@@ -10012,7 +10040,7 @@
         <v>503</v>
       </c>
       <c r="M115" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N115" s="42"/>
       <c r="O115" s="42"/>
@@ -10055,7 +10083,7 @@
         <v>78</v>
       </c>
       <c r="I116" s="42" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J116" s="42"/>
       <c r="K116" s="45">
@@ -10065,7 +10093,7 @@
         <v>503</v>
       </c>
       <c r="M116" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N116" s="42"/>
       <c r="O116" s="42"/>
@@ -10108,7 +10136,7 @@
         <v>97</v>
       </c>
       <c r="I117" s="42" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J117" s="42"/>
       <c r="K117" s="45">
@@ -10118,7 +10146,7 @@
         <v>503</v>
       </c>
       <c r="M117" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N117" s="42"/>
       <c r="O117" s="42"/>
@@ -10161,7 +10189,7 @@
         <v>99.5</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J118" s="42"/>
       <c r="K118" s="45">
@@ -10171,7 +10199,7 @@
         <v>503</v>
       </c>
       <c r="M118" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N118" s="42"/>
       <c r="O118" s="42"/>
@@ -10214,7 +10242,7 @@
         <v>75</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J119" s="42"/>
       <c r="K119" s="45">
@@ -10224,7 +10252,7 @@
         <v>503</v>
       </c>
       <c r="M119" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N119" s="42"/>
       <c r="O119" s="42"/>
@@ -10267,7 +10295,7 @@
         <v>88.5</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J120" s="42"/>
       <c r="K120" s="45">
@@ -10277,7 +10305,7 @@
         <v>503</v>
       </c>
       <c r="M120" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N120" s="42"/>
       <c r="O120" s="42"/>
@@ -10320,7 +10348,7 @@
         <v>97.5</v>
       </c>
       <c r="I121" s="42" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J121" s="42"/>
       <c r="K121" s="45">
@@ -10330,7 +10358,7 @@
         <v>503</v>
       </c>
       <c r="M121" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N121" s="42"/>
       <c r="O121" s="42"/>
@@ -10373,7 +10401,7 @@
         <v>99</v>
       </c>
       <c r="I122" s="42" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J122" s="42"/>
       <c r="K122" s="45">
@@ -10383,7 +10411,7 @@
         <v>503</v>
       </c>
       <c r="M122" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N122" s="42"/>
       <c r="O122" s="42"/>
@@ -10426,7 +10454,7 @@
         <v>95.5</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J123" s="42"/>
       <c r="K123" s="45">
@@ -10436,7 +10464,7 @@
         <v>503</v>
       </c>
       <c r="M123" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N123" s="42"/>
       <c r="O123" s="42"/>
@@ -10479,7 +10507,7 @@
         <v>93</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J124" s="42"/>
       <c r="K124" s="45">
@@ -10489,7 +10517,7 @@
         <v>503</v>
       </c>
       <c r="M124" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N124" s="42"/>
       <c r="O124" s="42"/>
@@ -10532,7 +10560,7 @@
         <v>95</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J125" s="42"/>
       <c r="K125" s="45">
@@ -10542,7 +10570,7 @@
         <v>503</v>
       </c>
       <c r="M125" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N125" s="42"/>
       <c r="O125" s="42"/>
@@ -10585,7 +10613,7 @@
         <v>90</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J126" s="42"/>
       <c r="K126" s="45">
@@ -10595,7 +10623,7 @@
         <v>503</v>
       </c>
       <c r="M126" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N126" s="42"/>
       <c r="O126" s="42"/>
@@ -10638,7 +10666,7 @@
         <v>100</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J127" s="42"/>
       <c r="K127" s="45">
@@ -10648,7 +10676,7 @@
         <v>503</v>
       </c>
       <c r="M127" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N127" s="42"/>
       <c r="O127" s="42"/>
@@ -10691,7 +10719,7 @@
         <v>97</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J128" s="42"/>
       <c r="K128" s="45">
@@ -10701,7 +10729,7 @@
         <v>503</v>
       </c>
       <c r="M128" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N128" s="42"/>
       <c r="O128" s="42"/>
@@ -10744,7 +10772,7 @@
         <v>78.5</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J129" s="42"/>
       <c r="K129" s="45">
@@ -10754,7 +10782,7 @@
         <v>503</v>
       </c>
       <c r="M129" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N129" s="42"/>
       <c r="O129" s="42"/>
@@ -10797,7 +10825,7 @@
         <v>96.5</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J130" s="42"/>
       <c r="K130" s="45">
@@ -10807,7 +10835,7 @@
         <v>503</v>
       </c>
       <c r="M130" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N130" s="42"/>
       <c r="O130" s="42"/>
@@ -10850,7 +10878,7 @@
         <v>94</v>
       </c>
       <c r="I131" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J131" s="42"/>
       <c r="K131" s="45">
@@ -10860,7 +10888,7 @@
         <v>503</v>
       </c>
       <c r="M131" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N131" s="42"/>
       <c r="O131" s="42"/>
@@ -10903,7 +10931,7 @@
         <v>98</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J132" s="42"/>
       <c r="K132" s="45">
@@ -10913,7 +10941,7 @@
         <v>503</v>
       </c>
       <c r="M132" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N132" s="42"/>
       <c r="O132" s="42"/>
@@ -10956,7 +10984,7 @@
         <v>75.5</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="45">
@@ -10966,7 +10994,7 @@
         <v>504</v>
       </c>
       <c r="M133" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
@@ -11009,7 +11037,7 @@
         <v>97</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="45">
@@ -11019,7 +11047,7 @@
         <v>504</v>
       </c>
       <c r="M134" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
@@ -11062,7 +11090,7 @@
         <v>97</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="45">
@@ -11072,7 +11100,7 @@
         <v>504</v>
       </c>
       <c r="M135" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
@@ -11115,7 +11143,7 @@
         <v>99</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J136" s="5"/>
       <c r="K136" s="45">
@@ -11125,7 +11153,7 @@
         <v>504</v>
       </c>
       <c r="M136" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
@@ -11168,7 +11196,7 @@
         <v>98</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J137" s="5"/>
       <c r="K137" s="45">
@@ -11178,7 +11206,7 @@
         <v>504</v>
       </c>
       <c r="M137" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
@@ -11221,7 +11249,7 @@
         <v>100</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J138" s="5"/>
       <c r="K138" s="45">
@@ -11231,7 +11259,7 @@
         <v>504</v>
       </c>
       <c r="M138" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
@@ -11274,7 +11302,7 @@
         <v>91.5</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J139" s="5"/>
       <c r="K139" s="45">
@@ -11284,7 +11312,7 @@
         <v>504</v>
       </c>
       <c r="M139" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
@@ -11327,7 +11355,7 @@
         <v>99</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J140" s="5"/>
       <c r="K140" s="45">
@@ -11337,7 +11365,7 @@
         <v>504</v>
       </c>
       <c r="M140" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
@@ -11380,7 +11408,7 @@
         <v>93</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="45">
@@ -11390,7 +11418,7 @@
         <v>504</v>
       </c>
       <c r="M141" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
@@ -11433,7 +11461,7 @@
         <v>99</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="45">
@@ -11443,7 +11471,7 @@
         <v>504</v>
       </c>
       <c r="M142" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
@@ -11486,7 +11514,7 @@
         <v>87.5</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J143" s="5"/>
       <c r="K143" s="45">
@@ -11496,7 +11524,7 @@
         <v>504</v>
       </c>
       <c r="M143" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
@@ -11539,7 +11567,7 @@
         <v>99</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J144" s="5"/>
       <c r="K144" s="45">
@@ -11549,7 +11577,7 @@
         <v>504</v>
       </c>
       <c r="M144" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
@@ -11592,7 +11620,7 @@
         <v>96</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="45">
@@ -11602,7 +11630,7 @@
         <v>504</v>
       </c>
       <c r="M145" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
@@ -11645,7 +11673,7 @@
         <v>95</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="45">
@@ -11655,7 +11683,7 @@
         <v>504</v>
       </c>
       <c r="M146" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
@@ -11698,7 +11726,7 @@
         <v>91</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J147" s="5"/>
       <c r="K147" s="45">
@@ -11708,7 +11736,7 @@
         <v>504</v>
       </c>
       <c r="M147" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
@@ -11751,7 +11779,7 @@
         <v>94</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J148" s="5"/>
       <c r="K148" s="45">
@@ -11761,7 +11789,7 @@
         <v>504</v>
       </c>
       <c r="M148" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
@@ -11802,7 +11830,7 @@
         <v>82</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J149" s="5"/>
       <c r="K149" s="45">
@@ -11812,7 +11840,7 @@
         <v>504</v>
       </c>
       <c r="M149" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
@@ -11853,7 +11881,7 @@
         <v>92</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="45">
@@ -11863,7 +11891,7 @@
         <v>504</v>
       </c>
       <c r="M150" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
@@ -11904,7 +11932,7 @@
         <v>96</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J151" s="5"/>
       <c r="K151" s="45">
@@ -11914,7 +11942,7 @@
         <v>504</v>
       </c>
       <c r="M151" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
@@ -11953,7 +11981,7 @@
         <v>92</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="45">
@@ -11963,7 +11991,7 @@
         <v>504</v>
       </c>
       <c r="M152" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
@@ -12000,7 +12028,7 @@
         <v>99</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="45">
@@ -12010,7 +12038,7 @@
         <v>504</v>
       </c>
       <c r="M153" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
@@ -12053,7 +12081,7 @@
         <v>99</v>
       </c>
       <c r="I154" s="42" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J154" s="42"/>
       <c r="K154" s="45">
@@ -12063,7 +12091,7 @@
         <v>504</v>
       </c>
       <c r="M154" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N154" s="42"/>
       <c r="O154" s="42"/>
@@ -12106,7 +12134,7 @@
         <v>85</v>
       </c>
       <c r="I155" s="42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J155" s="42"/>
       <c r="K155" s="45">
@@ -12116,7 +12144,7 @@
         <v>504</v>
       </c>
       <c r="M155" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N155" s="42"/>
       <c r="O155" s="42"/>
@@ -12159,7 +12187,7 @@
         <v>85</v>
       </c>
       <c r="I156" s="42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J156" s="42"/>
       <c r="K156" s="45">
@@ -12169,7 +12197,7 @@
         <v>504</v>
       </c>
       <c r="M156" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N156" s="42"/>
       <c r="O156" s="42"/>
@@ -12212,7 +12240,7 @@
         <v>82.5</v>
       </c>
       <c r="I157" s="42" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J157" s="42"/>
       <c r="K157" s="45">
@@ -12222,7 +12250,7 @@
         <v>504</v>
       </c>
       <c r="M157" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N157" s="42"/>
       <c r="O157" s="42"/>
@@ -12265,7 +12293,7 @@
         <v>97.5</v>
       </c>
       <c r="I158" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J158" s="42"/>
       <c r="K158" s="45">
@@ -12275,7 +12303,7 @@
         <v>504</v>
       </c>
       <c r="M158" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N158" s="42"/>
       <c r="O158" s="42"/>
@@ -12300,7 +12328,7 @@
         <v>285</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>425</v>
@@ -12318,7 +12346,7 @@
         <v>99</v>
       </c>
       <c r="I159" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J159" s="42"/>
       <c r="K159" s="45">
@@ -12328,7 +12356,7 @@
         <v>504</v>
       </c>
       <c r="M159" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N159" s="42"/>
       <c r="O159" s="42"/>
@@ -12371,7 +12399,7 @@
         <v>93.5</v>
       </c>
       <c r="I160" s="42" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J160" s="42"/>
       <c r="K160" s="45">
@@ -12381,7 +12409,7 @@
         <v>504</v>
       </c>
       <c r="M160" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N160" s="42"/>
       <c r="O160" s="42"/>
@@ -12424,7 +12452,7 @@
         <v>95</v>
       </c>
       <c r="I161" s="42" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J161" s="42"/>
       <c r="K161" s="45">
@@ -12434,7 +12462,7 @@
         <v>504</v>
       </c>
       <c r="M161" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N161" s="42"/>
       <c r="O161" s="42"/>
@@ -12477,7 +12505,7 @@
         <v>90</v>
       </c>
       <c r="I162" s="42" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J162" s="42"/>
       <c r="K162" s="45">
@@ -12487,7 +12515,7 @@
         <v>504</v>
       </c>
       <c r="M162" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N162" s="42"/>
       <c r="O162" s="42"/>
@@ -12530,7 +12558,7 @@
         <v>95</v>
       </c>
       <c r="I163" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J163" s="42"/>
       <c r="K163" s="45">
@@ -12540,7 +12568,7 @@
         <v>504</v>
       </c>
       <c r="M163" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N163" s="42"/>
       <c r="O163" s="42"/>
@@ -12583,7 +12611,7 @@
         <v>97</v>
       </c>
       <c r="I164" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J164" s="42"/>
       <c r="K164" s="45">
@@ -12593,7 +12621,7 @@
         <v>504</v>
       </c>
       <c r="M164" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N164" s="42"/>
       <c r="O164" s="42"/>
@@ -12636,7 +12664,7 @@
         <v>95</v>
       </c>
       <c r="I165" s="42" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J165" s="42"/>
       <c r="K165" s="45">
@@ -12646,7 +12674,7 @@
         <v>504</v>
       </c>
       <c r="M165" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N165" s="42"/>
       <c r="O165" s="42"/>
@@ -12689,7 +12717,7 @@
         <v>93</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J166" s="42"/>
       <c r="K166" s="45">
@@ -12699,7 +12727,7 @@
         <v>504</v>
       </c>
       <c r="M166" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N166" s="42"/>
       <c r="O166" s="42"/>
@@ -12742,7 +12770,7 @@
         <v>97</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J167" s="42"/>
       <c r="K167" s="45">
@@ -12752,7 +12780,7 @@
         <v>504</v>
       </c>
       <c r="M167" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N167" s="42"/>
       <c r="O167" s="42"/>
@@ -12795,7 +12823,7 @@
         <v>95</v>
       </c>
       <c r="I168" s="42" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J168" s="42"/>
       <c r="K168" s="45">
@@ -12805,7 +12833,7 @@
         <v>504</v>
       </c>
       <c r="M168" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N168" s="42"/>
       <c r="O168" s="42"/>
@@ -12848,7 +12876,7 @@
         <v>95</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>836</v>
+        <v>970</v>
       </c>
       <c r="J169" s="42"/>
       <c r="K169" s="45">
@@ -12858,7 +12886,7 @@
         <v>504</v>
       </c>
       <c r="M169" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N169" s="42"/>
       <c r="O169" s="42"/>
@@ -12883,7 +12911,7 @@
         <v>606</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F170" s="41">
         <v>71.5</v>
@@ -12895,7 +12923,7 @@
         <v>63</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J170" s="42"/>
       <c r="K170" s="45">
@@ -12905,7 +12933,7 @@
         <v>504</v>
       </c>
       <c r="M170" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N170" s="42"/>
       <c r="O170" s="42"/>
@@ -12948,17 +12976,17 @@
         <v>97</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="45">
         <v>201602001</v>
       </c>
       <c r="L171" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M171" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
@@ -13001,17 +13029,17 @@
         <v>94</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="45">
         <v>201602001</v>
       </c>
       <c r="L172" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M172" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
@@ -13054,17 +13082,17 @@
         <v>95</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="45">
         <v>201602001</v>
       </c>
       <c r="L173" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M173" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
@@ -13107,17 +13135,17 @@
         <v>95.5</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="45">
         <v>201602001</v>
       </c>
       <c r="L174" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M174" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
@@ -13160,17 +13188,17 @@
         <v>99</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="45">
         <v>201602001</v>
       </c>
       <c r="L175" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M175" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
@@ -13213,17 +13241,17 @@
         <v>92.5</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="45">
         <v>201602001</v>
       </c>
       <c r="L176" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M176" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
@@ -13266,17 +13294,17 @@
         <v>84</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="45">
         <v>201602001</v>
       </c>
       <c r="L177" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M177" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
@@ -13319,17 +13347,17 @@
         <v>98.5</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J178" s="5"/>
       <c r="K178" s="45">
         <v>201602001</v>
       </c>
       <c r="L178" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M178" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
@@ -13372,17 +13400,17 @@
         <v>88</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="45">
         <v>201602001</v>
       </c>
       <c r="L179" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M179" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -13425,17 +13453,17 @@
         <v>97</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="45">
         <v>201602001</v>
       </c>
       <c r="L180" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M180" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -13478,17 +13506,17 @@
         <v>92.5</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="45">
         <v>201602001</v>
       </c>
       <c r="L181" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M181" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -13531,17 +13559,17 @@
         <v>95.5</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J182" s="2"/>
       <c r="K182" s="45">
         <v>201602001</v>
       </c>
       <c r="L182" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M182" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -13584,17 +13612,17 @@
         <v>99.5</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="45">
         <v>201602001</v>
       </c>
       <c r="L183" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M183" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -13637,17 +13665,17 @@
         <v>93</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J184" s="5"/>
       <c r="K184" s="45">
         <v>201602001</v>
       </c>
       <c r="L184" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M184" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
@@ -13690,17 +13718,17 @@
         <v>93.5</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="45">
         <v>201602001</v>
       </c>
       <c r="L185" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M185" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -13743,17 +13771,17 @@
         <v>97.5</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J186" s="2"/>
       <c r="K186" s="45">
         <v>201602001</v>
       </c>
       <c r="L186" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M186" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -13796,17 +13824,17 @@
         <v>93.5</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J187" s="2"/>
       <c r="K187" s="45">
         <v>201602001</v>
       </c>
       <c r="L187" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M187" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -13849,17 +13877,17 @@
         <v>93</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J188" s="2"/>
       <c r="K188" s="45">
         <v>201602001</v>
       </c>
       <c r="L188" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M188" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -13902,17 +13930,17 @@
         <v>88.5</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J189" s="2"/>
       <c r="K189" s="45">
         <v>201602001</v>
       </c>
       <c r="L189" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M189" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -13955,17 +13983,17 @@
         <v>83</v>
       </c>
       <c r="I190" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J190" s="30"/>
       <c r="K190" s="45">
         <v>201602001</v>
       </c>
       <c r="L190" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M190" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N190" s="30"/>
       <c r="O190" s="30"/>
@@ -14008,17 +14036,17 @@
         <v>97.5</v>
       </c>
       <c r="I191" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J191" s="30"/>
       <c r="K191" s="45">
         <v>201602001</v>
       </c>
       <c r="L191" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M191" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N191" s="30"/>
       <c r="O191" s="30"/>
@@ -14061,17 +14089,17 @@
         <v>97</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J192" s="30"/>
       <c r="K192" s="45">
         <v>201602001</v>
       </c>
       <c r="L192" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M192" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N192" s="30"/>
       <c r="O192" s="30"/>
@@ -14114,17 +14142,17 @@
         <v>84</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J193" s="30"/>
       <c r="K193" s="45">
         <v>201602001</v>
       </c>
       <c r="L193" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M193" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N193" s="30"/>
       <c r="O193" s="30"/>
@@ -14167,17 +14195,17 @@
         <v>95</v>
       </c>
       <c r="I194" s="40" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J194" s="30"/>
       <c r="K194" s="45">
         <v>201602001</v>
       </c>
       <c r="L194" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M194" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N194" s="30"/>
       <c r="O194" s="30"/>
@@ -14220,17 +14248,17 @@
         <v>57</v>
       </c>
       <c r="I195" s="40" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J195" s="30"/>
       <c r="K195" s="45">
         <v>201602001</v>
       </c>
       <c r="L195" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M195" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N195" s="30"/>
       <c r="O195" s="30"/>
@@ -14273,17 +14301,17 @@
         <v>70.5</v>
       </c>
       <c r="I196" s="40" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J196" s="30"/>
       <c r="K196" s="45">
         <v>201602001</v>
       </c>
       <c r="L196" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M196" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N196" s="30"/>
       <c r="O196" s="30"/>
@@ -14326,17 +14354,17 @@
         <v>96</v>
       </c>
       <c r="I197" s="40" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J197" s="30"/>
       <c r="K197" s="45">
         <v>201602001</v>
       </c>
       <c r="L197" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M197" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N197" s="30"/>
       <c r="O197" s="30"/>
@@ -14379,17 +14407,17 @@
         <v>89</v>
       </c>
       <c r="I198" s="40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J198" s="30"/>
       <c r="K198" s="45">
         <v>201602001</v>
       </c>
       <c r="L198" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M198" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N198" s="30"/>
       <c r="O198" s="30"/>
@@ -14414,10 +14442,10 @@
         <v>286</v>
       </c>
       <c r="C199" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="D199" s="30" t="s">
         <v>619</v>
-      </c>
-      <c r="D199" s="30" t="s">
-        <v>620</v>
       </c>
       <c r="E199" s="30" t="s">
         <v>2</v>
@@ -14432,17 +14460,17 @@
         <v>93</v>
       </c>
       <c r="I199" s="40" t="s">
-        <v>864</v>
+        <v>975</v>
       </c>
       <c r="J199" s="30"/>
       <c r="K199" s="45">
         <v>201602001</v>
       </c>
       <c r="L199" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M199" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N199" s="30"/>
       <c r="O199" s="30"/>
@@ -14467,7 +14495,7 @@
         <v>287</v>
       </c>
       <c r="C200" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>448</v>
@@ -14485,27 +14513,27 @@
         <v>90.5</v>
       </c>
       <c r="I200" s="42" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J200" s="42"/>
       <c r="K200" s="45">
         <v>201602001</v>
       </c>
       <c r="L200" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M200" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N200" s="42"/>
       <c r="O200" s="42"/>
       <c r="P200" s="42"/>
       <c r="Q200" s="42"/>
       <c r="R200" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S200" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S200" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T200" s="4" t="s">
         <v>568</v>
@@ -14538,27 +14566,27 @@
         <v>86</v>
       </c>
       <c r="I201" s="42" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J201" s="42"/>
       <c r="K201" s="45">
         <v>201602001</v>
       </c>
       <c r="L201" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M201" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N201" s="42"/>
       <c r="O201" s="42"/>
       <c r="P201" s="42"/>
       <c r="Q201" s="42"/>
       <c r="R201" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S201" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S201" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T201" s="4" t="s">
         <v>568</v>
@@ -14591,27 +14619,27 @@
         <v>75</v>
       </c>
       <c r="I202" s="42" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J202" s="42"/>
       <c r="K202" s="45">
         <v>201602001</v>
       </c>
       <c r="L202" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M202" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N202" s="42"/>
       <c r="O202" s="42"/>
       <c r="P202" s="42"/>
       <c r="Q202" s="42"/>
       <c r="R202" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S202" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S202" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T202" s="4" t="s">
         <v>568</v>
@@ -14644,27 +14672,27 @@
         <v>96</v>
       </c>
       <c r="I203" s="42" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J203" s="42"/>
       <c r="K203" s="45">
         <v>201602001</v>
       </c>
       <c r="L203" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M203" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N203" s="42"/>
       <c r="O203" s="42"/>
       <c r="P203" s="42"/>
       <c r="Q203" s="42"/>
       <c r="R203" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S203" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S203" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T203" s="4" t="s">
         <v>568</v>
@@ -14697,27 +14725,27 @@
         <v>98.5</v>
       </c>
       <c r="I204" s="42" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J204" s="42"/>
       <c r="K204" s="45">
         <v>201602001</v>
       </c>
       <c r="L204" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M204" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N204" s="42"/>
       <c r="O204" s="42"/>
       <c r="P204" s="42"/>
       <c r="Q204" s="42"/>
       <c r="R204" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S204" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S204" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T204" s="4" t="s">
         <v>568</v>
@@ -14750,27 +14778,27 @@
         <v>75.5</v>
       </c>
       <c r="I205" s="42" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J205" s="42"/>
       <c r="K205" s="45">
         <v>201602001</v>
       </c>
       <c r="L205" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M205" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N205" s="42"/>
       <c r="O205" s="42"/>
       <c r="P205" s="42"/>
       <c r="Q205" s="42"/>
       <c r="R205" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S205" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S205" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T205" s="4" t="s">
         <v>568</v>
@@ -14803,27 +14831,27 @@
         <v>100</v>
       </c>
       <c r="I206" s="42" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J206" s="42"/>
       <c r="K206" s="45">
         <v>201602001</v>
       </c>
       <c r="L206" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M206" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N206" s="42"/>
       <c r="O206" s="42"/>
       <c r="P206" s="42"/>
       <c r="Q206" s="42"/>
       <c r="R206" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S206" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S206" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T206" s="4" t="s">
         <v>568</v>
@@ -14856,27 +14884,27 @@
         <v>82</v>
       </c>
       <c r="I207" s="42" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J207" s="42"/>
       <c r="K207" s="45">
         <v>201602001</v>
       </c>
       <c r="L207" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M207" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N207" s="42"/>
       <c r="O207" s="42"/>
       <c r="P207" s="42"/>
       <c r="Q207" s="42"/>
       <c r="R207" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S207" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S207" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T207" s="4" t="s">
         <v>568</v>
@@ -14909,27 +14937,27 @@
         <v>69.5</v>
       </c>
       <c r="I208" s="42" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J208" s="42"/>
       <c r="K208" s="45">
         <v>201602001</v>
       </c>
       <c r="L208" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M208" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N208" s="42"/>
       <c r="O208" s="42"/>
       <c r="P208" s="42"/>
       <c r="Q208" s="42"/>
       <c r="R208" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S208" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S208" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T208" s="4" t="s">
         <v>568</v>
@@ -14962,27 +14990,27 @@
         <v>89.5</v>
       </c>
       <c r="I209" s="42" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J209" s="42"/>
       <c r="K209" s="45">
         <v>201602001</v>
       </c>
       <c r="L209" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M209" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N209" s="42"/>
       <c r="O209" s="42"/>
       <c r="P209" s="42"/>
       <c r="Q209" s="42"/>
       <c r="R209" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S209" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S209" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T209" s="4" t="s">
         <v>568</v>
@@ -15015,27 +15043,27 @@
         <v>96</v>
       </c>
       <c r="I210" s="42" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J210" s="42"/>
       <c r="K210" s="45">
         <v>201602001</v>
       </c>
       <c r="L210" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M210" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N210" s="42"/>
       <c r="O210" s="42"/>
       <c r="P210" s="42"/>
       <c r="Q210" s="42"/>
       <c r="R210" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S210" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S210" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T210" s="4" t="s">
         <v>568</v>
@@ -15068,27 +15096,27 @@
         <v>96</v>
       </c>
       <c r="I211" s="42" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J211" s="42"/>
       <c r="K211" s="45">
         <v>201602001</v>
       </c>
       <c r="L211" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M211" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N211" s="42"/>
       <c r="O211" s="42"/>
       <c r="P211" s="42"/>
       <c r="Q211" s="42"/>
       <c r="R211" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S211" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S211" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T211" s="4" t="s">
         <v>568</v>
@@ -15121,27 +15149,27 @@
         <v>92</v>
       </c>
       <c r="I212" s="42" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J212" s="42"/>
       <c r="K212" s="45">
         <v>201602001</v>
       </c>
       <c r="L212" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M212" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N212" s="42"/>
       <c r="O212" s="42"/>
       <c r="P212" s="42"/>
       <c r="Q212" s="42"/>
       <c r="R212" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S212" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S212" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T212" s="4" t="s">
         <v>568</v>
@@ -15174,27 +15202,27 @@
         <v>85</v>
       </c>
       <c r="I213" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J213" s="42"/>
       <c r="K213" s="45">
         <v>201602001</v>
       </c>
       <c r="L213" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M213" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N213" s="42"/>
       <c r="O213" s="42"/>
       <c r="P213" s="42"/>
       <c r="Q213" s="42"/>
       <c r="R213" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S213" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S213" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T213" s="4" t="s">
         <v>568</v>
@@ -15227,27 +15255,27 @@
         <v>100</v>
       </c>
       <c r="I214" s="42" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J214" s="42"/>
       <c r="K214" s="45">
         <v>201602001</v>
       </c>
       <c r="L214" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M214" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N214" s="42"/>
       <c r="O214" s="42"/>
       <c r="P214" s="42"/>
       <c r="Q214" s="42"/>
       <c r="R214" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S214" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S214" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T214" s="4" t="s">
         <v>568</v>
@@ -15280,27 +15308,27 @@
         <v>97.5</v>
       </c>
       <c r="I215" s="42" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J215" s="42"/>
       <c r="K215" s="45">
         <v>201602001</v>
       </c>
       <c r="L215" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M215" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N215" s="42"/>
       <c r="O215" s="42"/>
       <c r="P215" s="42"/>
       <c r="Q215" s="42"/>
       <c r="R215" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S215" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S215" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T215" s="4" t="s">
         <v>568</v>
@@ -15333,27 +15361,27 @@
         <v>95</v>
       </c>
       <c r="I216" s="42" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J216" s="42"/>
       <c r="K216" s="45">
         <v>201602001</v>
       </c>
       <c r="L216" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M216" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N216" s="42"/>
       <c r="O216" s="42"/>
       <c r="P216" s="42"/>
       <c r="Q216" s="42"/>
       <c r="R216" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S216" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S216" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T216" s="4" t="s">
         <v>568</v>
@@ -15386,27 +15414,27 @@
         <v>89.5</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J217" s="42"/>
       <c r="K217" s="45">
         <v>201602001</v>
       </c>
       <c r="L217" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M217" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N217" s="42"/>
       <c r="O217" s="42"/>
       <c r="P217" s="42"/>
       <c r="Q217" s="42"/>
       <c r="R217" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S217" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S217" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T217" s="4" t="s">
         <v>568</v>
@@ -15437,27 +15465,27 @@
         <v>74</v>
       </c>
       <c r="I218" s="42" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J218" s="42"/>
       <c r="K218" s="45">
         <v>201602001</v>
       </c>
       <c r="L218" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M218" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N218" s="42"/>
       <c r="O218" s="42"/>
       <c r="P218" s="42"/>
       <c r="Q218" s="42"/>
       <c r="R218" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S218" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S218" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T218" s="4" t="s">
         <v>568</v>
@@ -15488,27 +15516,27 @@
         <v>78.5</v>
       </c>
       <c r="I219" s="42" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J219" s="42"/>
       <c r="K219" s="45">
         <v>201602001</v>
       </c>
       <c r="L219" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M219" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N219" s="42"/>
       <c r="O219" s="42"/>
       <c r="P219" s="42"/>
       <c r="Q219" s="42"/>
       <c r="R219" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S219" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S219" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T219" s="4" t="s">
         <v>568</v>
@@ -15539,27 +15567,27 @@
         <v>85.5</v>
       </c>
       <c r="I220" s="42" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J220" s="42"/>
       <c r="K220" s="45">
         <v>201602001</v>
       </c>
       <c r="L220" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M220" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N220" s="42"/>
       <c r="O220" s="42"/>
       <c r="P220" s="42"/>
       <c r="Q220" s="42"/>
       <c r="R220" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S220" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S220" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T220" s="4" t="s">
         <v>568</v>
@@ -15574,7 +15602,7 @@
         <v>287</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="42" t="s">
@@ -15590,27 +15618,27 @@
         <v>57.5</v>
       </c>
       <c r="I221" s="42" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J221" s="42"/>
       <c r="K221" s="45">
         <v>201602001</v>
       </c>
       <c r="L221" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M221" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N221" s="42"/>
       <c r="O221" s="42"/>
       <c r="P221" s="42"/>
       <c r="Q221" s="42"/>
       <c r="R221" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S221" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S221" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T221" s="4" t="s">
         <v>568</v>
@@ -15625,7 +15653,7 @@
         <v>287</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D222" s="4"/>
       <c r="E222" s="42" t="s">
@@ -15641,27 +15669,27 @@
         <v>63.5</v>
       </c>
       <c r="I222" s="42" t="s">
-        <v>886</v>
+        <v>972</v>
       </c>
       <c r="J222" s="42"/>
       <c r="K222" s="45">
         <v>201602001</v>
       </c>
       <c r="L222" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M222" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N222" s="42"/>
       <c r="O222" s="42"/>
       <c r="P222" s="42"/>
       <c r="Q222" s="42"/>
       <c r="R222" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="S222" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="S222" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="T222" s="4" t="s">
         <v>568</v>
@@ -15694,27 +15722,27 @@
         <v>60</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J223" s="5"/>
       <c r="K223" s="45">
         <v>201602001</v>
       </c>
       <c r="L223" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M223" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
       <c r="P223" s="5"/>
       <c r="Q223" s="5"/>
       <c r="R223" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S223" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S223" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T223" s="5" t="s">
         <v>568</v>
@@ -15729,7 +15757,7 @@
         <v>288</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>458</v>
@@ -15747,27 +15775,27 @@
         <v>69.5</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J224" s="5"/>
       <c r="K224" s="45">
         <v>201602001</v>
       </c>
       <c r="L224" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M224" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N224" s="5"/>
       <c r="O224" s="5"/>
       <c r="P224" s="5"/>
       <c r="Q224" s="5"/>
       <c r="R224" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S224" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S224" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T224" s="5" t="s">
         <v>568</v>
@@ -15800,27 +15828,27 @@
         <v>40.5</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J225" s="5"/>
       <c r="K225" s="45">
         <v>201602001</v>
       </c>
       <c r="L225" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M225" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N225" s="5"/>
       <c r="O225" s="5"/>
       <c r="P225" s="5"/>
       <c r="Q225" s="5"/>
       <c r="R225" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S225" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S225" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T225" s="5" t="s">
         <v>568</v>
@@ -15853,27 +15881,27 @@
         <v>93</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J226" s="5"/>
       <c r="K226" s="45">
         <v>201602001</v>
       </c>
       <c r="L226" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M226" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N226" s="5"/>
       <c r="O226" s="5"/>
       <c r="P226" s="5"/>
       <c r="Q226" s="5"/>
       <c r="R226" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S226" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S226" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T226" s="5" t="s">
         <v>568</v>
@@ -15906,27 +15934,27 @@
         <v>92</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J227" s="5"/>
       <c r="K227" s="45">
         <v>201602001</v>
       </c>
       <c r="L227" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M227" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N227" s="5"/>
       <c r="O227" s="5"/>
       <c r="P227" s="5"/>
       <c r="Q227" s="5"/>
       <c r="R227" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S227" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S227" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T227" s="5" t="s">
         <v>568</v>
@@ -15959,27 +15987,27 @@
         <v>73.5</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J228" s="5"/>
       <c r="K228" s="45">
         <v>201602001</v>
       </c>
       <c r="L228" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M228" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N228" s="5"/>
       <c r="O228" s="5"/>
       <c r="P228" s="5"/>
       <c r="Q228" s="5"/>
       <c r="R228" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S228" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S228" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T228" s="5" t="s">
         <v>568</v>
@@ -16012,27 +16040,27 @@
         <v>85</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J229" s="5"/>
       <c r="K229" s="45">
         <v>201602001</v>
       </c>
       <c r="L229" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M229" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N229" s="5"/>
       <c r="O229" s="5"/>
       <c r="P229" s="5"/>
       <c r="Q229" s="5"/>
       <c r="R229" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S229" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S229" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T229" s="5" t="s">
         <v>568</v>
@@ -16065,27 +16093,27 @@
         <v>62</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J230" s="5"/>
       <c r="K230" s="45">
         <v>201602001</v>
       </c>
       <c r="L230" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M230" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N230" s="5"/>
       <c r="O230" s="5"/>
       <c r="P230" s="5"/>
       <c r="Q230" s="5"/>
       <c r="R230" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S230" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S230" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T230" s="5" t="s">
         <v>568</v>
@@ -16118,27 +16146,27 @@
         <v>66.5</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J231" s="5"/>
       <c r="K231" s="45">
         <v>201602001</v>
       </c>
       <c r="L231" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M231" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N231" s="5"/>
       <c r="O231" s="5"/>
       <c r="P231" s="5"/>
       <c r="Q231" s="5"/>
       <c r="R231" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S231" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S231" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T231" s="5" t="s">
         <v>568</v>
@@ -16171,27 +16199,27 @@
         <v>88</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J232" s="5"/>
       <c r="K232" s="45">
         <v>201602001</v>
       </c>
       <c r="L232" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M232" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N232" s="5"/>
       <c r="O232" s="5"/>
       <c r="P232" s="5"/>
       <c r="Q232" s="5"/>
       <c r="R232" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S232" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S232" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T232" s="5" t="s">
         <v>568</v>
@@ -16224,27 +16252,27 @@
         <v>70</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J233" s="5"/>
       <c r="K233" s="45">
         <v>201602001</v>
       </c>
       <c r="L233" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M233" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N233" s="5"/>
       <c r="O233" s="5"/>
       <c r="P233" s="5"/>
       <c r="Q233" s="5"/>
       <c r="R233" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S233" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S233" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T233" s="5" t="s">
         <v>568</v>
@@ -16277,27 +16305,27 @@
         <v>90.5</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J234" s="5"/>
       <c r="K234" s="45">
         <v>201602001</v>
       </c>
       <c r="L234" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M234" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N234" s="5"/>
       <c r="O234" s="5"/>
       <c r="P234" s="5"/>
       <c r="Q234" s="5"/>
       <c r="R234" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S234" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S234" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T234" s="5" t="s">
         <v>568</v>
@@ -16330,27 +16358,27 @@
         <v>99</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J235" s="5"/>
       <c r="K235" s="45">
         <v>201602001</v>
       </c>
       <c r="L235" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M235" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N235" s="5"/>
       <c r="O235" s="5"/>
       <c r="P235" s="5"/>
       <c r="Q235" s="5"/>
       <c r="R235" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S235" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S235" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T235" s="5" t="s">
         <v>568</v>
@@ -16383,27 +16411,27 @@
         <v>97</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J236" s="5"/>
       <c r="K236" s="45">
         <v>201602001</v>
       </c>
       <c r="L236" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M236" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N236" s="5"/>
       <c r="O236" s="5"/>
       <c r="P236" s="5"/>
       <c r="Q236" s="5"/>
       <c r="R236" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S236" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S236" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T236" s="5" t="s">
         <v>568</v>
@@ -16436,27 +16464,27 @@
         <v>95</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J237" s="5"/>
       <c r="K237" s="45">
         <v>201602001</v>
       </c>
       <c r="L237" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M237" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N237" s="5"/>
       <c r="O237" s="5"/>
       <c r="P237" s="5"/>
       <c r="Q237" s="5"/>
       <c r="R237" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S237" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S237" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T237" s="5" t="s">
         <v>568</v>
@@ -16489,27 +16517,27 @@
         <v>91</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J238" s="5"/>
       <c r="K238" s="45">
         <v>201602001</v>
       </c>
       <c r="L238" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M238" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N238" s="5"/>
       <c r="O238" s="5"/>
       <c r="P238" s="5"/>
       <c r="Q238" s="5"/>
       <c r="R238" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S238" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S238" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T238" s="5" t="s">
         <v>568</v>
@@ -16542,27 +16570,27 @@
         <v>96.5</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J239" s="5"/>
       <c r="K239" s="45">
         <v>201602001</v>
       </c>
       <c r="L239" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M239" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N239" s="5"/>
       <c r="O239" s="5"/>
       <c r="P239" s="5"/>
       <c r="Q239" s="5"/>
       <c r="R239" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S239" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S239" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T239" s="5" t="s">
         <v>568</v>
@@ -16595,27 +16623,27 @@
         <v>66.5</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J240" s="5"/>
       <c r="K240" s="45">
         <v>201602001</v>
       </c>
       <c r="L240" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M240" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N240" s="5"/>
       <c r="O240" s="5"/>
       <c r="P240" s="5"/>
       <c r="Q240" s="5"/>
       <c r="R240" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S240" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S240" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T240" s="5" t="s">
         <v>568</v>
@@ -16648,27 +16676,27 @@
         <v>81.5</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J241" s="5"/>
       <c r="K241" s="45">
         <v>201602001</v>
       </c>
       <c r="L241" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M241" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N241" s="5"/>
       <c r="O241" s="5"/>
       <c r="P241" s="5"/>
       <c r="Q241" s="5"/>
       <c r="R241" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S241" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S241" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T241" s="5" t="s">
         <v>568</v>
@@ -16701,27 +16729,27 @@
         <v>98</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J242" s="5"/>
       <c r="K242" s="45">
         <v>201602001</v>
       </c>
       <c r="L242" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M242" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N242" s="5"/>
       <c r="O242" s="5"/>
       <c r="P242" s="5"/>
       <c r="Q242" s="5"/>
       <c r="R242" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S242" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S242" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T242" s="5" t="s">
         <v>568</v>
@@ -16736,7 +16764,7 @@
         <v>288</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>330</v>
@@ -16754,27 +16782,27 @@
         <v>87</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J243" s="5"/>
       <c r="K243" s="45">
         <v>201602001</v>
       </c>
       <c r="L243" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M243" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N243" s="5"/>
       <c r="O243" s="5"/>
       <c r="P243" s="5"/>
       <c r="Q243" s="5"/>
       <c r="R243" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S243" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S243" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T243" s="5" t="s">
         <v>568</v>
@@ -16789,7 +16817,7 @@
         <v>288</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>400</v>
@@ -16807,27 +16835,27 @@
         <v>82</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J244" s="5"/>
       <c r="K244" s="45">
         <v>201602001</v>
       </c>
       <c r="L244" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M244" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N244" s="5"/>
       <c r="O244" s="5"/>
       <c r="P244" s="5"/>
       <c r="Q244" s="5"/>
       <c r="R244" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S244" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S244" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T244" s="5" t="s">
         <v>568</v>
@@ -16860,27 +16888,27 @@
         <v>61</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J245" s="5"/>
       <c r="K245" s="45">
         <v>201602001</v>
       </c>
       <c r="L245" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M245" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N245" s="5"/>
       <c r="O245" s="5"/>
       <c r="P245" s="5"/>
       <c r="Q245" s="5"/>
       <c r="R245" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S245" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S245" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T245" s="5" t="s">
         <v>568</v>
@@ -16913,27 +16941,27 @@
         <v>66.5</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J246" s="5"/>
       <c r="K246" s="45">
         <v>201602001</v>
       </c>
       <c r="L246" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M246" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N246" s="5"/>
       <c r="O246" s="5"/>
       <c r="P246" s="5"/>
       <c r="Q246" s="5"/>
       <c r="R246" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S246" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S246" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T246" s="5" t="s">
         <v>568</v>
@@ -16966,27 +16994,27 @@
         <v>79</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J247" s="5"/>
       <c r="K247" s="45">
         <v>201602001</v>
       </c>
       <c r="L247" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M247" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N247" s="5"/>
       <c r="O247" s="5"/>
       <c r="P247" s="5"/>
       <c r="Q247" s="5"/>
       <c r="R247" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S247" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S247" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T247" s="5" t="s">
         <v>568</v>
@@ -17017,27 +17045,27 @@
         <v>49.5</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J248" s="5"/>
       <c r="K248" s="45">
         <v>201602001</v>
       </c>
       <c r="L248" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M248" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N248" s="5"/>
       <c r="O248" s="5"/>
       <c r="P248" s="5"/>
       <c r="Q248" s="5"/>
       <c r="R248" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S248" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S248" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T248" s="5" t="s">
         <v>568</v>
@@ -17068,27 +17096,27 @@
         <v>88</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J249" s="5"/>
       <c r="K249" s="45">
         <v>201602001</v>
       </c>
       <c r="L249" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M249" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N249" s="5"/>
       <c r="O249" s="5"/>
       <c r="P249" s="5"/>
       <c r="Q249" s="5"/>
       <c r="R249" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="S249" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="S249" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="T249" s="5" t="s">
         <v>568</v>
@@ -17121,7 +17149,7 @@
         <v>70</v>
       </c>
       <c r="I250" s="42" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J250" s="42">
         <v>64</v>
@@ -17133,7 +17161,7 @@
         <v>505</v>
       </c>
       <c r="M250" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N250" s="42">
         <v>64</v>
@@ -17149,7 +17177,7 @@
         <v>64</v>
       </c>
       <c r="S250" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T250" s="4" t="s">
         <v>568</v>
@@ -17182,7 +17210,7 @@
         <v>81</v>
       </c>
       <c r="I251" s="42" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J251" s="42">
         <v>79</v>
@@ -17194,7 +17222,7 @@
         <v>505</v>
       </c>
       <c r="M251" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N251" s="42">
         <v>79</v>
@@ -17210,7 +17238,7 @@
         <v>88</v>
       </c>
       <c r="S251" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T251" s="4" t="s">
         <v>568</v>
@@ -17243,7 +17271,7 @@
         <v>72</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J252" s="42">
         <v>49</v>
@@ -17255,7 +17283,7 @@
         <v>505</v>
       </c>
       <c r="M252" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N252" s="42">
         <v>49</v>
@@ -17271,7 +17299,7 @@
         <v>60</v>
       </c>
       <c r="S252" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T252" s="4" t="s">
         <v>568</v>
@@ -17304,7 +17332,7 @@
         <v>55</v>
       </c>
       <c r="I253" s="42" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J253" s="42">
         <v>63</v>
@@ -17316,7 +17344,7 @@
         <v>505</v>
       </c>
       <c r="M253" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N253" s="42">
         <v>63</v>
@@ -17332,7 +17360,7 @@
         <v>83</v>
       </c>
       <c r="S253" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T253" s="4" t="s">
         <v>568</v>
@@ -17365,7 +17393,7 @@
         <v>85</v>
       </c>
       <c r="I254" s="42" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J254" s="42">
         <v>75</v>
@@ -17377,7 +17405,7 @@
         <v>505</v>
       </c>
       <c r="M254" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N254" s="42">
         <v>75</v>
@@ -17393,7 +17421,7 @@
         <v>80</v>
       </c>
       <c r="S254" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T254" s="4" t="s">
         <v>568</v>
@@ -17426,7 +17454,7 @@
         <v>61</v>
       </c>
       <c r="I255" s="42" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J255" s="42">
         <v>62</v>
@@ -17438,7 +17466,7 @@
         <v>505</v>
       </c>
       <c r="M255" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N255" s="42">
         <v>62</v>
@@ -17454,7 +17482,7 @@
         <v>51</v>
       </c>
       <c r="S255" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T255" s="4" t="s">
         <v>568</v>
@@ -17487,7 +17515,7 @@
         <v>64</v>
       </c>
       <c r="I256" s="42" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J256" s="42">
         <v>58</v>
@@ -17499,7 +17527,7 @@
         <v>505</v>
       </c>
       <c r="M256" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N256" s="42">
         <v>58</v>
@@ -17515,7 +17543,7 @@
         <v>53</v>
       </c>
       <c r="S256" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T256" s="4" t="s">
         <v>568</v>
@@ -17548,7 +17576,7 @@
         <v>77</v>
       </c>
       <c r="I257" s="42" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J257" s="42">
         <v>71</v>
@@ -17560,7 +17588,7 @@
         <v>505</v>
       </c>
       <c r="M257" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N257" s="42">
         <v>71</v>
@@ -17576,7 +17604,7 @@
         <v>82</v>
       </c>
       <c r="S257" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T257" s="4" t="s">
         <v>568</v>
@@ -17609,7 +17637,7 @@
         <v>82</v>
       </c>
       <c r="I258" s="42" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J258" s="42">
         <v>68</v>
@@ -17621,7 +17649,7 @@
         <v>505</v>
       </c>
       <c r="M258" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N258" s="42">
         <v>68</v>
@@ -17637,7 +17665,7 @@
         <v>73</v>
       </c>
       <c r="S258" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T258" s="4" t="s">
         <v>568</v>
@@ -17670,7 +17698,7 @@
         <v>82</v>
       </c>
       <c r="I259" s="42" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J259" s="42">
         <v>67</v>
@@ -17682,7 +17710,7 @@
         <v>505</v>
       </c>
       <c r="M259" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N259" s="42">
         <v>67</v>
@@ -17698,7 +17726,7 @@
         <v>62</v>
       </c>
       <c r="S259" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T259" s="4" t="s">
         <v>568</v>
@@ -17731,7 +17759,7 @@
         <v>64</v>
       </c>
       <c r="I260" s="42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J260" s="42">
         <v>62</v>
@@ -17743,7 +17771,7 @@
         <v>505</v>
       </c>
       <c r="M260" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N260" s="42">
         <v>62</v>
@@ -17759,7 +17787,7 @@
         <v>35</v>
       </c>
       <c r="S260" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T260" s="4" t="s">
         <v>568</v>
@@ -17792,7 +17820,7 @@
         <v>81</v>
       </c>
       <c r="I261" s="42" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J261" s="42">
         <v>63</v>
@@ -17804,7 +17832,7 @@
         <v>505</v>
       </c>
       <c r="M261" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N261" s="42">
         <v>63</v>
@@ -17820,7 +17848,7 @@
         <v>39</v>
       </c>
       <c r="S261" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T261" s="4" t="s">
         <v>568</v>
@@ -17853,7 +17881,7 @@
         <v>91</v>
       </c>
       <c r="I262" s="42" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J262" s="42">
         <v>65</v>
@@ -17865,7 +17893,7 @@
         <v>505</v>
       </c>
       <c r="M262" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N262" s="42">
         <v>65</v>
@@ -17881,7 +17909,7 @@
         <v>41</v>
       </c>
       <c r="S262" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T262" s="4" t="s">
         <v>568</v>
@@ -17914,7 +17942,7 @@
         <v>71</v>
       </c>
       <c r="I263" s="42" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J263" s="42">
         <v>76</v>
@@ -17926,7 +17954,7 @@
         <v>505</v>
       </c>
       <c r="M263" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N263" s="42">
         <v>76</v>
@@ -17942,7 +17970,7 @@
         <v>66</v>
       </c>
       <c r="S263" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T263" s="4" t="s">
         <v>568</v>
@@ -17975,7 +18003,7 @@
         <v>79</v>
       </c>
       <c r="I264" s="42" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J264" s="42">
         <v>60</v>
@@ -17987,7 +18015,7 @@
         <v>505</v>
       </c>
       <c r="M264" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N264" s="42">
         <v>60</v>
@@ -18003,7 +18031,7 @@
         <v>42</v>
       </c>
       <c r="S264" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T264" s="4" t="s">
         <v>568</v>
@@ -18018,7 +18046,7 @@
         <v>241</v>
       </c>
       <c r="C265" s="42" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="42" t="s">
@@ -18034,7 +18062,7 @@
         <v>87</v>
       </c>
       <c r="I265" s="42" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J265" s="42">
         <v>66</v>
@@ -18046,7 +18074,7 @@
         <v>505</v>
       </c>
       <c r="M265" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N265" s="42">
         <v>66</v>
@@ -18062,7 +18090,7 @@
         <v>70</v>
       </c>
       <c r="S265" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T265" s="4" t="s">
         <v>568</v>
@@ -18093,7 +18121,7 @@
         <v>70</v>
       </c>
       <c r="I266" s="42" t="s">
-        <v>929</v>
+        <v>973</v>
       </c>
       <c r="J266" s="42">
         <v>69</v>
@@ -18105,7 +18133,7 @@
         <v>505</v>
       </c>
       <c r="M266" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N266" s="42">
         <v>69</v>
@@ -18121,7 +18149,7 @@
         <v>35</v>
       </c>
       <c r="S266" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T266" s="4" t="s">
         <v>568</v>
@@ -18136,7 +18164,7 @@
         <v>241</v>
       </c>
       <c r="C267" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D267" s="4"/>
       <c r="E267" s="42" t="s">
@@ -18152,7 +18180,7 @@
         <v>77</v>
       </c>
       <c r="I267" s="42" t="s">
-        <v>930</v>
+        <v>974</v>
       </c>
       <c r="J267" s="42">
         <v>74</v>
@@ -18164,7 +18192,7 @@
         <v>505</v>
       </c>
       <c r="M267" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N267" s="42">
         <v>67</v>
@@ -18191,7 +18219,7 @@
         <v>241</v>
       </c>
       <c r="C268" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D268" s="4"/>
       <c r="E268" s="42" t="s">
@@ -18207,7 +18235,7 @@
         <v>49</v>
       </c>
       <c r="I268" s="42" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J268" s="42">
         <v>67</v>
@@ -18219,7 +18247,7 @@
         <v>505</v>
       </c>
       <c r="M268" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N268" s="42">
         <v>74</v>
@@ -18235,7 +18263,7 @@
         <v>60</v>
       </c>
       <c r="S268" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T268" s="5" t="s">
         <v>574</v>
@@ -18268,7 +18296,7 @@
         <v>65</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J269" s="5">
         <v>43</v>
@@ -18280,7 +18308,7 @@
         <v>505</v>
       </c>
       <c r="M269" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N269" s="2">
         <v>68</v>
@@ -18293,10 +18321,10 @@
       </c>
       <c r="Q269" s="5"/>
       <c r="R269" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S269" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T269" s="5" t="s">
         <v>574</v>
@@ -18329,7 +18357,7 @@
         <v>80</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J270" s="5">
         <v>62</v>
@@ -18341,7 +18369,7 @@
         <v>505</v>
       </c>
       <c r="M270" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N270" s="2">
         <v>94</v>
@@ -18354,10 +18382,10 @@
       </c>
       <c r="Q270" s="5"/>
       <c r="R270" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S270" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T270" s="5" t="s">
         <v>574</v>
@@ -18390,7 +18418,7 @@
         <v>55</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J271" s="5">
         <v>66</v>
@@ -18402,7 +18430,7 @@
         <v>505</v>
       </c>
       <c r="M271" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N271" s="2">
         <v>87</v>
@@ -18415,10 +18443,10 @@
       </c>
       <c r="Q271" s="5"/>
       <c r="R271" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S271" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T271" s="5" t="s">
         <v>574</v>
@@ -18451,7 +18479,7 @@
         <v>72</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J272" s="5">
         <v>87</v>
@@ -18463,7 +18491,7 @@
         <v>505</v>
       </c>
       <c r="M272" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N272" s="2">
         <v>88.000000000000014</v>
@@ -18476,10 +18504,10 @@
       </c>
       <c r="Q272" s="5"/>
       <c r="R272" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S272" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T272" s="5" t="s">
         <v>574</v>
@@ -18512,7 +18540,7 @@
         <v>66</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J273" s="5">
         <v>68</v>
@@ -18524,7 +18552,7 @@
         <v>505</v>
       </c>
       <c r="M273" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N273" s="2">
         <v>84</v>
@@ -18537,10 +18565,10 @@
       </c>
       <c r="Q273" s="5"/>
       <c r="R273" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S273" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T273" s="5" t="s">
         <v>574</v>
@@ -18573,7 +18601,7 @@
         <v>84</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J274" s="5">
         <v>80</v>
@@ -18585,7 +18613,7 @@
         <v>505</v>
       </c>
       <c r="M274" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N274" s="2">
         <v>93</v>
@@ -18598,10 +18626,10 @@
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S274" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T274" s="5" t="s">
         <v>574</v>
@@ -18634,7 +18662,7 @@
         <v>41</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J275" s="5">
         <v>66</v>
@@ -18646,7 +18674,7 @@
         <v>505</v>
       </c>
       <c r="M275" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N275" s="2">
         <v>74</v>
@@ -18659,10 +18687,10 @@
       </c>
       <c r="Q275" s="5"/>
       <c r="R275" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S275" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T275" s="5" t="s">
         <v>574</v>
@@ -18695,7 +18723,7 @@
         <v>59</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J276" s="5">
         <v>55</v>
@@ -18707,7 +18735,7 @@
         <v>505</v>
       </c>
       <c r="M276" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N276" s="2">
         <v>86.000000000000014</v>
@@ -18720,10 +18748,10 @@
       </c>
       <c r="Q276" s="5"/>
       <c r="R276" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S276" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T276" s="5" t="s">
         <v>574</v>
@@ -18756,7 +18784,7 @@
         <v>28</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J277" s="5">
         <v>50</v>
@@ -18768,7 +18796,7 @@
         <v>505</v>
       </c>
       <c r="M277" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N277" s="2">
         <v>24.000000000000004</v>
@@ -18781,10 +18809,10 @@
       </c>
       <c r="Q277" s="5"/>
       <c r="R277" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S277" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T277" s="5" t="s">
         <v>574</v>
@@ -18817,7 +18845,7 @@
         <v>78</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J278" s="5">
         <v>60</v>
@@ -18829,7 +18857,7 @@
         <v>505</v>
       </c>
       <c r="M278" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N278" s="2">
         <v>80</v>
@@ -18842,10 +18870,10 @@
       </c>
       <c r="Q278" s="5"/>
       <c r="R278" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S278" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T278" s="5" t="s">
         <v>574</v>
@@ -18878,7 +18906,7 @@
         <v>87</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J279" s="5">
         <v>87</v>
@@ -18890,7 +18918,7 @@
         <v>505</v>
       </c>
       <c r="M279" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N279" s="2">
         <v>90</v>
@@ -18903,10 +18931,10 @@
       </c>
       <c r="Q279" s="5"/>
       <c r="R279" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S279" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T279" s="5" t="s">
         <v>574</v>
@@ -18939,7 +18967,7 @@
         <v>87</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J280" s="5">
         <v>74</v>
@@ -18951,7 +18979,7 @@
         <v>505</v>
       </c>
       <c r="M280" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N280" s="2">
         <v>76.000000000000014</v>
@@ -18964,10 +18992,10 @@
       </c>
       <c r="Q280" s="5"/>
       <c r="R280" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S280" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T280" s="5" t="s">
         <v>574</v>
@@ -18985,7 +19013,7 @@
         <v>266</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>2</v>
@@ -19000,7 +19028,7 @@
         <v>86</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J281" s="5">
         <v>50</v>
@@ -19012,7 +19040,7 @@
         <v>505</v>
       </c>
       <c r="M281" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N281" s="2">
         <v>88.000000000000014</v>
@@ -19025,10 +19053,10 @@
       </c>
       <c r="Q281" s="5"/>
       <c r="R281" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S281" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T281" s="5" t="s">
         <v>574</v>
@@ -19061,7 +19089,7 @@
         <v>47</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J282" s="5">
         <v>90</v>
@@ -19073,7 +19101,7 @@
         <v>505</v>
       </c>
       <c r="M282" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N282" s="2">
         <v>96.000000000000014</v>
@@ -19086,10 +19114,10 @@
       </c>
       <c r="Q282" s="5"/>
       <c r="R282" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S282" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T282" s="5" t="s">
         <v>574</v>
@@ -19104,10 +19132,10 @@
         <v>242</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>2</v>
@@ -19122,7 +19150,7 @@
         <v>62</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J283" s="5">
         <v>63</v>
@@ -19134,7 +19162,7 @@
         <v>505</v>
       </c>
       <c r="M283" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N283" s="2">
         <v>91.000000000000014</v>
@@ -19147,10 +19175,10 @@
       </c>
       <c r="Q283" s="5"/>
       <c r="R283" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S283" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T283" s="5" t="s">
         <v>574</v>
@@ -19165,10 +19193,10 @@
         <v>242</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>2</v>
@@ -19183,7 +19211,7 @@
         <v>69</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J284" s="5">
         <v>56</v>
@@ -19195,7 +19223,7 @@
         <v>505</v>
       </c>
       <c r="M284" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N284" s="2">
         <v>83.000000000000014</v>
@@ -19220,7 +19248,7 @@
         <v>242</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="5" t="s">
@@ -19236,7 +19264,7 @@
         <v>46</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J285" s="5">
         <v>87</v>
@@ -19248,7 +19276,7 @@
         <v>505</v>
       </c>
       <c r="M285" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N285" s="2">
         <v>92.000000000000014</v>
@@ -19261,10 +19289,10 @@
       </c>
       <c r="Q285" s="5"/>
       <c r="R285" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S285" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T285" s="5" t="s">
         <v>574</v>
@@ -19279,7 +19307,7 @@
         <v>242</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="5" t="s">
@@ -19295,7 +19323,7 @@
         <v>71</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J286" s="30">
         <v>61</v>
@@ -19307,7 +19335,7 @@
         <v>505</v>
       </c>
       <c r="M286" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N286" s="2">
         <v>96.000000000000014</v>
@@ -19350,7 +19378,7 @@
         <v>43</v>
       </c>
       <c r="I287" s="42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J287" s="42">
         <v>64</v>
@@ -19359,10 +19387,10 @@
         <v>201602001</v>
       </c>
       <c r="L287" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M287" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N287" s="42">
         <v>80</v>
@@ -19377,10 +19405,10 @@
         <v>61</v>
       </c>
       <c r="R287" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S287" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S287" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T287" s="4" t="s">
         <v>568</v>
@@ -19413,7 +19441,7 @@
         <v>86.5</v>
       </c>
       <c r="I288" s="42" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J288" s="42">
         <v>58</v>
@@ -19422,10 +19450,10 @@
         <v>201602001</v>
       </c>
       <c r="L288" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M288" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N288" s="42">
         <v>77</v>
@@ -19440,10 +19468,10 @@
         <v>68</v>
       </c>
       <c r="R288" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S288" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S288" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T288" s="4" t="s">
         <v>568</v>
@@ -19476,7 +19504,7 @@
         <v>8.5</v>
       </c>
       <c r="I289" s="42" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J289" s="42">
         <v>61</v>
@@ -19485,10 +19513,10 @@
         <v>201602001</v>
       </c>
       <c r="L289" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M289" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N289" s="42">
         <v>60</v>
@@ -19503,10 +19531,10 @@
         <v>33</v>
       </c>
       <c r="R289" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S289" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S289" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T289" s="4" t="s">
         <v>568</v>
@@ -19530,46 +19558,46 @@
         <v>2</v>
       </c>
       <c r="F290" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="G290" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="G290" s="41" t="s">
+      <c r="H290" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="I290" s="42" t="s">
+        <v>951</v>
+      </c>
+      <c r="J290" s="42" t="s">
         <v>648</v>
       </c>
-      <c r="H290" s="42" t="s">
+      <c r="K290" s="45">
+        <v>201602001</v>
+      </c>
+      <c r="L290" s="47" t="s">
+        <v>665</v>
+      </c>
+      <c r="M290" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="N290" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="O290" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="P290" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q290" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="I290" s="42" t="s">
-        <v>952</v>
-      </c>
-      <c r="J290" s="42" t="s">
-        <v>649</v>
-      </c>
-      <c r="K290" s="45">
-        <v>201602001</v>
-      </c>
-      <c r="L290" s="47" t="s">
-        <v>666</v>
-      </c>
-      <c r="M290" s="47" t="s">
-        <v>660</v>
-      </c>
-      <c r="N290" s="42" t="s">
-        <v>650</v>
-      </c>
-      <c r="O290" s="42" t="s">
-        <v>653</v>
-      </c>
-      <c r="P290" s="43" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q290" s="42" t="s">
-        <v>652</v>
-      </c>
       <c r="R290" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S290" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S290" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T290" s="4" t="s">
         <v>568</v>
@@ -19602,7 +19630,7 @@
         <v>70</v>
       </c>
       <c r="I291" s="42" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J291" s="42">
         <v>66</v>
@@ -19611,10 +19639,10 @@
         <v>201602001</v>
       </c>
       <c r="L291" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M291" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N291" s="42">
         <v>87</v>
@@ -19629,10 +19657,10 @@
         <v>41</v>
       </c>
       <c r="R291" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S291" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S291" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T291" s="4" t="s">
         <v>568</v>
@@ -19665,7 +19693,7 @@
         <v>63</v>
       </c>
       <c r="I292" s="42" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J292" s="42">
         <v>61</v>
@@ -19674,10 +19702,10 @@
         <v>201602001</v>
       </c>
       <c r="L292" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M292" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N292" s="42">
         <v>96</v>
@@ -19692,10 +19720,10 @@
         <v>81</v>
       </c>
       <c r="R292" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S292" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S292" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T292" s="4" t="s">
         <v>568</v>
@@ -19728,7 +19756,7 @@
         <v>40</v>
       </c>
       <c r="I293" s="42" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J293" s="42">
         <v>49</v>
@@ -19737,10 +19765,10 @@
         <v>201602001</v>
       </c>
       <c r="L293" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M293" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N293" s="42">
         <v>75</v>
@@ -19755,10 +19783,10 @@
         <v>49</v>
       </c>
       <c r="R293" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S293" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S293" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T293" s="4" t="s">
         <v>568</v>
@@ -19791,7 +19819,7 @@
         <v>65.5</v>
       </c>
       <c r="I294" s="42" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J294" s="42">
         <v>57</v>
@@ -19800,10 +19828,10 @@
         <v>201602001</v>
       </c>
       <c r="L294" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M294" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N294" s="42">
         <v>98</v>
@@ -19818,10 +19846,10 @@
         <v>68</v>
       </c>
       <c r="R294" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S294" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S294" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T294" s="4" t="s">
         <v>568</v>
@@ -19854,7 +19882,7 @@
         <v>28</v>
       </c>
       <c r="I295" s="42" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J295" s="42">
         <v>52</v>
@@ -19863,10 +19891,10 @@
         <v>201602001</v>
       </c>
       <c r="L295" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M295" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N295" s="42">
         <v>90</v>
@@ -19881,10 +19909,10 @@
         <v>31</v>
       </c>
       <c r="R295" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S295" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S295" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T295" s="4" t="s">
         <v>568</v>
@@ -19917,7 +19945,7 @@
         <v>64.5</v>
       </c>
       <c r="I296" s="42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J296" s="42">
         <v>54</v>
@@ -19926,10 +19954,10 @@
         <v>201602001</v>
       </c>
       <c r="L296" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M296" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N296" s="42">
         <v>87</v>
@@ -19944,10 +19972,10 @@
         <v>69</v>
       </c>
       <c r="R296" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S296" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S296" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T296" s="4" t="s">
         <v>568</v>
@@ -19980,7 +20008,7 @@
         <v>86</v>
       </c>
       <c r="I297" s="42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J297" s="42">
         <v>66</v>
@@ -19989,10 +20017,10 @@
         <v>201602001</v>
       </c>
       <c r="L297" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M297" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N297" s="42">
         <v>95</v>
@@ -20007,10 +20035,10 @@
         <v>53</v>
       </c>
       <c r="R297" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S297" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S297" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T297" s="4" t="s">
         <v>568</v>
@@ -20043,7 +20071,7 @@
         <v>15</v>
       </c>
       <c r="I298" s="42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J298" s="42">
         <v>61</v>
@@ -20052,10 +20080,10 @@
         <v>201602001</v>
       </c>
       <c r="L298" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M298" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N298" s="42">
         <v>90</v>
@@ -20070,10 +20098,10 @@
         <v>30</v>
       </c>
       <c r="R298" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S298" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S298" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T298" s="4" t="s">
         <v>568</v>
@@ -20106,7 +20134,7 @@
         <v>24</v>
       </c>
       <c r="I299" s="42" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J299" s="42">
         <v>58</v>
@@ -20115,10 +20143,10 @@
         <v>201602001</v>
       </c>
       <c r="L299" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M299" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N299" s="42">
         <v>82</v>
@@ -20133,10 +20161,10 @@
         <v>35</v>
       </c>
       <c r="R299" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S299" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S299" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T299" s="4" t="s">
         <v>568</v>
@@ -20169,7 +20197,7 @@
         <v>81</v>
       </c>
       <c r="I300" s="42" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J300" s="42">
         <v>63</v>
@@ -20178,10 +20206,10 @@
         <v>201602001</v>
       </c>
       <c r="L300" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M300" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N300" s="42">
         <v>96</v>
@@ -20196,10 +20224,10 @@
         <v>61</v>
       </c>
       <c r="R300" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S300" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S300" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T300" s="4" t="s">
         <v>568</v>
@@ -20232,7 +20260,7 @@
         <v>58.5</v>
       </c>
       <c r="I301" s="42" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J301" s="42">
         <v>59</v>
@@ -20241,10 +20269,10 @@
         <v>201602001</v>
       </c>
       <c r="L301" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M301" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N301" s="42">
         <v>94</v>
@@ -20259,10 +20287,10 @@
         <v>41</v>
       </c>
       <c r="R301" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S301" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S301" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T301" s="4" t="s">
         <v>568</v>
@@ -20295,7 +20323,7 @@
         <v>72.5</v>
       </c>
       <c r="I302" s="42" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J302" s="42">
         <v>66</v>
@@ -20304,10 +20332,10 @@
         <v>201602001</v>
       </c>
       <c r="L302" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M302" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N302" s="42">
         <v>96</v>
@@ -20322,10 +20350,10 @@
         <v>59</v>
       </c>
       <c r="R302" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S302" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S302" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T302" s="4" t="s">
         <v>568</v>
@@ -20358,7 +20386,7 @@
         <v>48</v>
       </c>
       <c r="I303" s="42" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J303" s="42">
         <v>50</v>
@@ -20367,10 +20395,10 @@
         <v>201602001</v>
       </c>
       <c r="L303" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M303" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N303" s="42">
         <v>83</v>
@@ -20385,10 +20413,10 @@
         <v>51</v>
       </c>
       <c r="R303" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S303" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S303" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T303" s="4" t="s">
         <v>568</v>
@@ -20421,7 +20449,7 @@
         <v>71</v>
       </c>
       <c r="I304" s="42" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J304" s="42">
         <v>67</v>
@@ -20430,10 +20458,10 @@
         <v>201602001</v>
       </c>
       <c r="L304" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M304" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N304" s="42">
         <v>96</v>
@@ -20448,10 +20476,10 @@
         <v>73</v>
       </c>
       <c r="R304" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S304" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S304" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T304" s="4" t="s">
         <v>568</v>
@@ -20484,7 +20512,7 @@
         <v>38</v>
       </c>
       <c r="I305" s="42" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J305" s="42">
         <v>54</v>
@@ -20493,10 +20521,10 @@
         <v>201602001</v>
       </c>
       <c r="L305" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M305" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N305" s="42">
         <v>76</v>
@@ -20511,10 +20539,10 @@
         <v>37</v>
       </c>
       <c r="R305" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="S305" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="S305" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="T305" s="4" t="s">
         <v>568</v>
@@ -20532,7 +20560,7 @@
         <v>276</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E306" s="42" t="s">
         <v>14</v>
@@ -20547,7 +20575,7 @@
         <v>46</v>
       </c>
       <c r="I306" s="42" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J306" s="42">
         <v>58</v>
@@ -20556,10 +20584,10 @@
         <v>201602001</v>
       </c>
       <c r="L306" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M306" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N306" s="42">
         <v>81</v>
@@ -20574,10 +20602,10 @@
         <v>62</v>
       </c>
       <c r="R306" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="S306" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="S306" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="T306" s="4" t="s">
         <v>568</v>
@@ -20587,6 +20615,9 @@
   </sheetData>
   <autoFilter ref="A1:U320"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I306">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.11811023622047245" top="0.22" bottom="0.3" header="0.51181102362204722" footer="0.13"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
@@ -20629,78 +20660,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
+      <c r="A1" s="59" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="60" t="s">
         <v>506</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="62" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
     </row>
     <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="61"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="34" t="s">
         <v>510</v>
       </c>
@@ -20751,7 +20782,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>520</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -20769,10 +20800,10 @@
       <c r="F4" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="54">
         <v>100</v>
       </c>
       <c r="I4" s="11">
@@ -20799,7 +20830,7 @@
       <c r="O4" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="P4" s="66">
+      <c r="P4" s="54">
         <v>100</v>
       </c>
       <c r="Q4" s="11">
@@ -20825,7 +20856,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>502</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -20843,8 +20874,8 @@
       <c r="F5" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="67"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="11">
         <f>AVERAGEIF(汇总!B:B,B5&amp;C5,汇总!F:F)</f>
         <v>94.354166666666671</v>
@@ -20869,7 +20900,7 @@
       <c r="O5" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="P5" s="67"/>
+      <c r="P5" s="57"/>
       <c r="Q5" s="11">
         <f>AVERAGEIF(汇总!B:B,B5&amp;C5,汇总!G:G)</f>
         <v>93.041666666666671</v>
@@ -20893,7 +20924,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>502</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -20914,7 +20945,7 @@
       <c r="G6" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="11">
         <f>AVERAGEIF(汇总!B:B,B6&amp;C6,汇总!F:F)</f>
         <v>93.695652173913047</v>
@@ -20939,7 +20970,7 @@
       <c r="O6" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="P6" s="68"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="11">
         <f>AVERAGEIF(汇总!B:B,B6&amp;C6,汇总!G:G)</f>
         <v>90.608695652173907</v>
@@ -20963,7 +20994,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>502</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -21017,7 +21048,7 @@
       <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>527</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -21038,7 +21069,7 @@
       <c r="G8" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="54">
         <v>100</v>
       </c>
       <c r="I8" s="11">
@@ -21065,7 +21096,7 @@
       <c r="O8" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="P8" s="66">
+      <c r="P8" s="54">
         <v>100</v>
       </c>
       <c r="Q8" s="11">
@@ -21091,7 +21122,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>503</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -21109,10 +21140,10 @@
       <c r="F9" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="11">
         <f>AVERAGEIF(汇总!B:B,B9&amp;C9,汇总!F:F)</f>
         <v>92.305555555555557</v>
@@ -21134,10 +21165,10 @@
       <c r="N9" s="9">
         <v>1</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="67"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="11">
         <f>AVERAGEIF(汇总!B:B,B9&amp;C9,汇总!G:G)</f>
         <v>89.972222222222229</v>
@@ -21161,7 +21192,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>503</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -21179,8 +21210,8 @@
       <c r="F10" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="11">
         <f>AVERAGEIF(汇总!B:B,B10&amp;C10,汇总!F:F)</f>
         <v>91.263157894736835</v>
@@ -21202,8 +21233,8 @@
       <c r="N10" s="9">
         <v>3</v>
       </c>
-      <c r="O10" s="65"/>
-      <c r="P10" s="68"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="11">
         <f>AVERAGEIF(汇总!B:B,B10&amp;C10,汇总!G:G)</f>
         <v>86.15789473684211</v>
@@ -21227,7 +21258,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>503</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -21281,7 +21312,7 @@
       <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>533</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -21302,7 +21333,7 @@
       <c r="G12" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="54">
         <v>100</v>
       </c>
       <c r="I12" s="11">
@@ -21329,7 +21360,7 @@
       <c r="O12" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="P12" s="66">
+      <c r="P12" s="54">
         <v>100</v>
       </c>
       <c r="Q12" s="11">
@@ -21355,7 +21386,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>504</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -21376,7 +21407,7 @@
       <c r="G13" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="11">
         <f>AVERAGEIF(汇总!B:B,B13&amp;C13,汇总!F:F)</f>
         <v>82.529411764705884</v>
@@ -21401,7 +21432,7 @@
       <c r="O13" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="P13" s="68"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="11">
         <f>AVERAGEIF(汇总!B:B,B13&amp;C13,汇总!G:G)</f>
         <v>83.82352941176471</v>
@@ -21425,7 +21456,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>504</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -21559,7 +21590,7 @@
       <c r="F16" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="58" t="s">
         <v>258</v>
       </c>
       <c r="H16" s="37">
@@ -21580,7 +21611,7 @@
         <v>0.21739130434782608</v>
       </c>
       <c r="N16" s="9"/>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="56" t="s">
         <v>541</v>
       </c>
       <c r="P16" s="37">
@@ -21621,7 +21652,7 @@
       <c r="F17" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="37">
         <v>100</v>
       </c>
@@ -21640,7 +21671,7 @@
         <v>0.59259259259259256</v>
       </c>
       <c r="N17" s="9"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="56"/>
       <c r="P17" s="37">
         <v>100</v>
       </c>
@@ -21661,7 +21692,7 @@
       <c r="V17" s="9"/>
     </row>
     <row r="18" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="53" t="s">
         <v>545</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -21682,7 +21713,7 @@
       <c r="G18" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="54">
         <v>120</v>
       </c>
       <c r="I18" s="11">
@@ -21706,10 +21737,10 @@
       <c r="N18" s="9">
         <v>1</v>
       </c>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="P18" s="66">
+      <c r="P18" s="54">
         <v>120</v>
       </c>
       <c r="Q18" s="11">
@@ -21735,7 +21766,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="53" t="s">
         <v>505</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -21756,7 +21787,7 @@
       <c r="G19" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="H19" s="68"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="11">
         <f>AVERAGEIF(汇总!B:B,B19&amp;C19,汇总!F:F)</f>
         <v>84.388888888888886</v>
@@ -21778,8 +21809,8 @@
       <c r="N19" s="9">
         <v>2</v>
       </c>
-      <c r="O19" s="65"/>
-      <c r="P19" s="68"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="55"/>
       <c r="Q19" s="11">
         <f>AVERAGEIF(汇总!B:B,B19&amp;C19,汇总!G:G)</f>
         <v>55.5</v>
@@ -21803,7 +21834,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>505</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -21919,50 +21950,33 @@
       <c r="V21" s="24"/>
     </row>
     <row r="22" spans="1:22" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="69" t="s">
-        <v>658</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
+      <c r="A22" s="52" t="s">
+        <v>657</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="O9:O10"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="A1:V1"/>
@@ -21974,6 +21988,23 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="O2:V2"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.03" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
